--- a/18_compression/ch_benchmark_results.xlsx
+++ b/18_compression/ch_benchmark_results.xlsx
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="179">
   <si>
     <t>name</t>
   </si>
@@ -883,11 +882,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E120" sqref="E120"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -904,83 +903,89 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>171965493</v>
+      </c>
+      <c r="F3" s="4">
+        <v>498154944</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="12">
-        <v>2.9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>171965493</v>
-      </c>
-      <c r="F4" s="4">
-        <v>498154944</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>7.84</v>
+      </c>
+      <c r="E4" s="2">
+        <v>127042190</v>
+      </c>
+      <c r="F4" s="2">
+        <v>996309888</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="12">
-        <v>7.84</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="E5" s="2">
-        <v>127042190</v>
+        <v>109265741</v>
       </c>
       <c r="F5" s="2">
         <v>996309888</v>
@@ -988,19 +993,19 @@
     </row>
     <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="12">
-        <v>9.1199999999999992</v>
+        <v>9.27</v>
       </c>
       <c r="E6" s="2">
-        <v>109265741</v>
+        <v>107514380</v>
       </c>
       <c r="F6" s="2">
         <v>996309888</v>
@@ -1008,189 +1013,189 @@
     </row>
     <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" s="12">
-        <v>9.27</v>
+        <v>199.72</v>
       </c>
       <c r="E7" s="2">
-        <v>107514380</v>
+        <v>9976915</v>
       </c>
       <c r="F7" s="2">
-        <v>996309888</v>
+        <v>1992619776</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" s="12">
-        <v>199.72</v>
+        <v>117.62</v>
       </c>
       <c r="E8" s="2">
-        <v>9976915</v>
+        <v>7407792</v>
       </c>
       <c r="F8" s="2">
-        <v>1992619776</v>
+        <v>871334574</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="12">
-        <v>117.62</v>
+        <v>214.89</v>
       </c>
       <c r="E9" s="2">
-        <v>7407792</v>
+        <v>6954418</v>
       </c>
       <c r="F9" s="2">
-        <v>871334574</v>
+        <v>1494464832</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="12">
-        <v>214.89</v>
+        <v>2.5</v>
       </c>
       <c r="E10" s="2">
-        <v>6954418</v>
+        <v>5995162</v>
       </c>
       <c r="F10" s="2">
-        <v>1494464832</v>
+        <v>14999356</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="12">
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E11" s="2">
-        <v>5995162</v>
+        <v>5134577</v>
       </c>
       <c r="F11" s="2">
-        <v>14999356</v>
+        <v>21057346</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D12" s="12">
-        <v>4.0999999999999996</v>
+        <v>201.86</v>
       </c>
       <c r="E12" s="2">
-        <v>5134577</v>
+        <v>4935749</v>
       </c>
       <c r="F12" s="2">
-        <v>21057346</v>
+        <v>996309888</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D13" s="12">
-        <v>201.86</v>
+        <v>208.13</v>
       </c>
       <c r="E13" s="2">
-        <v>4935749</v>
+        <v>4011065</v>
       </c>
       <c r="F13" s="2">
-        <v>996309888</v>
+        <v>834813816</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D14" s="12">
-        <v>208.13</v>
+        <v>2.92</v>
       </c>
       <c r="E14" s="2">
-        <v>4011065</v>
+        <v>3548012</v>
       </c>
       <c r="F14" s="2">
-        <v>834813816</v>
+        <v>10353424</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15" s="12">
-        <v>2.92</v>
+        <v>3.59</v>
       </c>
       <c r="E15" s="2">
-        <v>3548012</v>
+        <v>60453</v>
       </c>
       <c r="F15" s="2">
-        <v>10353424</v>
+        <v>217053</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1208,7 +1213,7 @@
     </row>
     <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
@@ -1226,155 +1231,179 @@
         <v>217053</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="12">
-        <v>3.59</v>
-      </c>
-      <c r="E18" s="2">
-        <v>60453</v>
-      </c>
-      <c r="F18" s="2">
-        <v>217053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D19" s="2">
         <v>17.239999999999998</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E19" s="2">
         <v>563932853</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F19" s="2">
         <v>9723688779</v>
       </c>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>166285640</v>
+      </c>
+      <c r="F24" s="2">
+        <v>498154944</v>
+      </c>
+      <c r="G24" s="7">
+        <f>VLOOKUP(A24,A3:D17, 4, FALSE)</f>
+        <v>2.9</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" ref="H24:H38" si="0">VLOOKUP(A24, $A$3:$E$17, 5, FALSE)</f>
+        <v>171965493</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" ref="I24:I38" si="1">VLOOKUP(A24, $A$3:$F$17, 6, FALSE)</f>
+        <v>498154944</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" ref="J24:J38" si="2">D24/G24 - 1</f>
+        <v>3.4482758620689724E-2</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" ref="K24:K38" si="3">E24/H24 - 1</f>
+        <v>-3.3029027515421361E-2</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" ref="L24:L38" si="4">F24/I24 - 1</f>
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2">
-        <v>166285640</v>
+        <v>81690114</v>
       </c>
       <c r="F25" s="2">
-        <v>498154944</v>
-      </c>
-      <c r="G25" s="7">
-        <f>VLOOKUP(A25,A4:D18, 4, FALSE)</f>
-        <v>2.9</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" ref="H25:H39" si="0">VLOOKUP(A25, $A$4:$E$18, 5, FALSE)</f>
-        <v>171965493</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" ref="I25:I39" si="1">VLOOKUP(A25, $A$4:$F$18, 6, FALSE)</f>
-        <v>498154944</v>
+        <v>249077472</v>
+      </c>
+      <c r="G25" s="8">
+        <f>VLOOKUP(A25,A3:D17, 4, FALSE)</f>
+        <v>7.84</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
+        <v>127042190</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="1"/>
+        <v>996309888</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" ref="J25:J39" si="2">D25/G25 - 1</f>
-        <v>3.4482758620689724E-2</v>
-      </c>
-      <c r="K25" s="6">
-        <f t="shared" ref="K25:K39" si="3">E25/H25 - 1</f>
-        <v>-3.3029027515421361E-2</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" ref="L25:L39" si="4">F25/I25 - 1</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-0.61096938775510212</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.35698436873608685</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="4"/>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2">
-        <v>81690114</v>
+        <v>56228217</v>
       </c>
       <c r="F26" s="2">
         <v>249077472</v>
       </c>
-      <c r="G26" s="8">
-        <f>VLOOKUP(A26,A4:D18, 4, FALSE)</f>
-        <v>7.84</v>
+      <c r="G26" s="7">
+        <f>VLOOKUP(A26,A3:D17, 4, FALSE)</f>
+        <v>9.1199999999999992</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="0"/>
-        <v>127042190</v>
+        <v>109265741</v>
       </c>
       <c r="I26" s="7">
         <f t="shared" si="1"/>
@@ -1382,11 +1411,11 @@
       </c>
       <c r="J26" s="6">
         <f t="shared" si="2"/>
-        <v>-0.61096938775510212</v>
+        <v>-0.51425438596491224</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" si="3"/>
-        <v>-0.35698436873608685</v>
+        <v>-0.48539938973186481</v>
       </c>
       <c r="L26" s="9">
         <f t="shared" si="4"/>
@@ -1395,30 +1424,30 @@
     </row>
     <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2">
-        <v>56228217</v>
+        <v>55246352</v>
       </c>
       <c r="F27" s="2">
         <v>249077472</v>
       </c>
-      <c r="G27" s="7">
-        <f>VLOOKUP(A27,A4:D18, 4, FALSE)</f>
-        <v>9.1199999999999992</v>
+      <c r="G27" s="8">
+        <f>VLOOKUP(A27,A3:D17, 4, FALSE)</f>
+        <v>9.27</v>
       </c>
       <c r="H27" s="7">
         <f t="shared" si="0"/>
-        <v>109265741</v>
+        <v>107514380</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="1"/>
@@ -1426,11 +1455,11 @@
       </c>
       <c r="J27" s="6">
         <f t="shared" si="2"/>
-        <v>-0.51425438596491224</v>
+        <v>-0.51348435814455229</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="3"/>
-        <v>-0.48539938973186481</v>
+        <v>-0.48614918302091314</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="4"/>
@@ -1439,86 +1468,86 @@
     </row>
     <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2">
-        <v>55246352</v>
+        <v>10003314</v>
       </c>
       <c r="F28" s="2">
-        <v>249077472</v>
+        <v>1992619776</v>
       </c>
       <c r="G28" s="8">
-        <f>VLOOKUP(A28,A4:D18, 4, FALSE)</f>
-        <v>9.27</v>
+        <f>VLOOKUP(A28,A3:D17, 4, FALSE)</f>
+        <v>199.72</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="0"/>
-        <v>107514380</v>
+        <v>9976915</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="1"/>
-        <v>996309888</v>
+        <v>1992619776</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="2"/>
-        <v>-0.51348435814455229</v>
-      </c>
-      <c r="K28" s="9">
+        <v>-2.6036451031444807E-3</v>
+      </c>
+      <c r="K28" s="6">
         <f t="shared" si="3"/>
-        <v>-0.48614918302091314</v>
-      </c>
-      <c r="L28" s="9">
+        <v>2.6460083101840226E-3</v>
+      </c>
+      <c r="L28" s="6">
         <f t="shared" si="4"/>
-        <v>-0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2">
-        <v>10003314</v>
+        <v>7409872</v>
       </c>
       <c r="F29" s="2">
-        <v>1992619776</v>
+        <v>871334574</v>
       </c>
       <c r="G29" s="8">
-        <f>VLOOKUP(A29,A4:D18, 4, FALSE)</f>
-        <v>199.72</v>
+        <f>VLOOKUP(A29,A3:D17, 4, FALSE)</f>
+        <v>117.62</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="0"/>
-        <v>9976915</v>
+        <v>7407792</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="1"/>
-        <v>1992619776</v>
+        <v>871334574</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="2"/>
-        <v>-2.6036451031444807E-3</v>
+        <v>-2.550586634926244E-4</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="3"/>
-        <v>2.6460083101840226E-3</v>
+        <v>2.8078542162091047E-4</v>
       </c>
       <c r="L29" s="6">
         <f t="shared" si="4"/>
@@ -1527,42 +1556,42 @@
     </row>
     <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2">
-        <v>7409872</v>
+        <v>6964512</v>
       </c>
       <c r="F30" s="2">
-        <v>871334574</v>
+        <v>1494464832</v>
       </c>
       <c r="G30" s="8">
-        <f>VLOOKUP(A30,A4:D18, 4, FALSE)</f>
-        <v>117.62</v>
+        <f>VLOOKUP(A30,A3:D17, 4, FALSE)</f>
+        <v>214.89</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="0"/>
-        <v>7407792</v>
+        <v>6954418</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="1"/>
-        <v>871334574</v>
+        <v>1494464832</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" si="2"/>
-        <v>-2.550586634926244E-4</v>
+        <v>-1.4425985387871432E-3</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" si="3"/>
-        <v>2.8078542162091047E-4</v>
+        <v>1.4514514370576048E-3</v>
       </c>
       <c r="L30" s="6">
         <f t="shared" si="4"/>
@@ -1571,42 +1600,42 @@
     </row>
     <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2">
-        <v>6964512</v>
+        <v>4015655</v>
       </c>
       <c r="F31" s="2">
-        <v>1494464832</v>
-      </c>
-      <c r="G31" s="8">
-        <f>VLOOKUP(A31,A4:D18, 4, FALSE)</f>
-        <v>214.89</v>
+        <v>834813816</v>
+      </c>
+      <c r="G31" s="7">
+        <f>VLOOKUP(A31,A3:D17, 4, FALSE)</f>
+        <v>208.13</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="0"/>
-        <v>6954418</v>
+        <v>4011065</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="1"/>
-        <v>1494464832</v>
+        <v>834813816</v>
       </c>
       <c r="J31" s="6">
         <f t="shared" si="2"/>
-        <v>-1.4425985387871432E-3</v>
+        <v>-1.1531254504396626E-3</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" si="3"/>
-        <v>1.4514514370576048E-3</v>
+        <v>1.1443344847315018E-3</v>
       </c>
       <c r="L31" s="6">
         <f t="shared" si="4"/>
@@ -1615,227 +1644,227 @@
     </row>
     <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2">
-        <v>4015655</v>
+        <v>3599606</v>
       </c>
       <c r="F32" s="2">
-        <v>834813816</v>
+        <v>5203771</v>
       </c>
       <c r="G32" s="7">
-        <f>VLOOKUP(A32,A4:D18, 4, FALSE)</f>
-        <v>208.13</v>
+        <f>VLOOKUP(A32,A3:D17, 4, FALSE)</f>
+        <v>2.5</v>
       </c>
       <c r="H32" s="7">
         <f t="shared" si="0"/>
-        <v>4011065</v>
+        <v>5995162</v>
       </c>
       <c r="I32" s="7">
         <f t="shared" si="1"/>
-        <v>834813816</v>
+        <v>14999356</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" si="2"/>
-        <v>-1.1531254504396626E-3</v>
-      </c>
-      <c r="K32" s="6">
+        <v>-0.42000000000000004</v>
+      </c>
+      <c r="K32" s="9">
         <f t="shared" si="3"/>
-        <v>1.1443344847315018E-3</v>
-      </c>
-      <c r="L32" s="6">
+        <v>-0.39958152923974366</v>
+      </c>
+      <c r="L32" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-0.65306703834484625</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E33" s="2">
-        <v>3599606</v>
+        <v>2887592</v>
       </c>
       <c r="F33" s="2">
-        <v>5203771</v>
-      </c>
-      <c r="G33" s="7">
-        <f>VLOOKUP(A33,A4:D18, 4, FALSE)</f>
-        <v>2.5</v>
+        <v>6984071</v>
+      </c>
+      <c r="G33" s="8">
+        <f>VLOOKUP(A33,A3:D17, 4, FALSE)</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H33" s="7">
         <f t="shared" si="0"/>
-        <v>5995162</v>
+        <v>5134577</v>
       </c>
       <c r="I33" s="7">
         <f t="shared" si="1"/>
-        <v>14999356</v>
+        <v>21057346</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>-0.42000000000000004</v>
+        <v>-0.40975609756097553</v>
       </c>
       <c r="K33" s="9">
         <f t="shared" si="3"/>
-        <v>-0.39958152923974366</v>
+        <v>-0.43761832766360309</v>
       </c>
       <c r="L33" s="9">
         <f t="shared" si="4"/>
-        <v>-0.65306703834484625</v>
+        <v>-0.66833089981994886</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2">
-        <v>2887592</v>
+        <v>2317297</v>
       </c>
       <c r="F34" s="2">
-        <v>6984071</v>
-      </c>
-      <c r="G34" s="8">
-        <f>VLOOKUP(A34,A4:D18, 4, FALSE)</f>
-        <v>4.0999999999999996</v>
+        <v>3594358</v>
+      </c>
+      <c r="G34" s="7">
+        <f>VLOOKUP(A34,A3:D17, 4, FALSE)</f>
+        <v>2.92</v>
       </c>
       <c r="H34" s="7">
         <f t="shared" si="0"/>
-        <v>5134577</v>
+        <v>3548012</v>
       </c>
       <c r="I34" s="7">
         <f t="shared" si="1"/>
-        <v>21057346</v>
+        <v>10353424</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="2"/>
-        <v>-0.40975609756097553</v>
+        <v>-0.46917808219178081</v>
       </c>
       <c r="K34" s="9">
         <f t="shared" si="3"/>
-        <v>-0.43761832766360309</v>
+        <v>-0.34687453142774038</v>
       </c>
       <c r="L34" s="9">
         <f t="shared" si="4"/>
-        <v>-0.66833089981994886</v>
+        <v>-0.65283388374705797</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>17</v>
+      <c r="A35" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2">
-        <v>2317297</v>
+        <v>1332739</v>
       </c>
       <c r="F35" s="2">
-        <v>3594358</v>
+        <v>249077472</v>
       </c>
       <c r="G35" s="7">
-        <f>VLOOKUP(A35,A4:D18, 4, FALSE)</f>
-        <v>2.92</v>
+        <f>VLOOKUP(A35,A3:D17, 4, FALSE)</f>
+        <v>201.86</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="0"/>
-        <v>3548012</v>
+        <v>4935749</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="1"/>
-        <v>10353424</v>
+        <v>996309888</v>
       </c>
       <c r="J35" s="6">
         <f t="shared" si="2"/>
-        <v>-0.46917808219178081</v>
+        <v>-7.4160309125136381E-2</v>
       </c>
       <c r="K35" s="9">
         <f t="shared" si="3"/>
-        <v>-0.34687453142774038</v>
+        <v>-0.72998242009470093</v>
       </c>
       <c r="L35" s="9">
         <f t="shared" si="4"/>
-        <v>-0.65283388374705797</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>16</v>
+      <c r="A36" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2">
-        <v>1332739</v>
+        <v>56238</v>
       </c>
       <c r="F36" s="2">
-        <v>249077472</v>
+        <v>215460</v>
       </c>
       <c r="G36" s="7">
-        <f>VLOOKUP(A36,A4:D18, 4, FALSE)</f>
-        <v>201.86</v>
+        <f>VLOOKUP(A36,A3:D17, 4, FALSE)</f>
+        <v>3.59</v>
       </c>
       <c r="H36" s="7">
         <f t="shared" si="0"/>
-        <v>4935749</v>
+        <v>60453</v>
       </c>
       <c r="I36" s="7">
         <f t="shared" si="1"/>
-        <v>996309888</v>
+        <v>217053</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>-7.4160309125136381E-2</v>
-      </c>
-      <c r="K36" s="9">
+        <v>6.6852367688022385E-2</v>
+      </c>
+      <c r="K36" s="10">
         <f t="shared" si="3"/>
-        <v>-0.72998242009470093</v>
-      </c>
-      <c r="L36" s="9">
+        <v>-6.9723586918763347E-2</v>
+      </c>
+      <c r="L36" s="10">
         <f t="shared" si="4"/>
-        <v>-0.75</v>
+        <v>-7.3392212961811421E-3</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>67</v>
@@ -1853,7 +1882,7 @@
         <v>215460</v>
       </c>
       <c r="G37" s="7">
-        <f>VLOOKUP(A37,A4:D18, 4, FALSE)</f>
+        <f>VLOOKUP(A37,A3:D17, 4, FALSE)</f>
         <v>3.59</v>
       </c>
       <c r="H37" s="7">
@@ -1879,7 +1908,7 @@
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>67</v>
@@ -1897,7 +1926,7 @@
         <v>215460</v>
       </c>
       <c r="G38" s="7">
-        <f>VLOOKUP(A38,A4:D18, 4, FALSE)</f>
+        <f>VLOOKUP(A38,A3:D17, 4, FALSE)</f>
         <v>3.59</v>
       </c>
       <c r="H38" s="7">
@@ -1922,96 +1951,57 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="2">
-        <v>56238</v>
-      </c>
-      <c r="F39" s="2">
-        <v>215460</v>
-      </c>
-      <c r="G39" s="7">
-        <f>VLOOKUP(A39,A4:D18, 4, FALSE)</f>
-        <v>3.59</v>
-      </c>
-      <c r="H39" s="7">
-        <f t="shared" si="0"/>
-        <v>60453</v>
-      </c>
-      <c r="I39" s="7">
-        <f t="shared" si="1"/>
-        <v>217053</v>
-      </c>
-      <c r="J39" s="6">
-        <f t="shared" si="2"/>
-        <v>6.6852367688022385E-2</v>
-      </c>
-      <c r="K39" s="10">
-        <f t="shared" si="3"/>
-        <v>-6.9723586918763347E-2</v>
-      </c>
-      <c r="L39" s="10">
-        <f t="shared" si="4"/>
-        <v>-7.3392212961811421E-3</v>
-      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="2">
+        <v>16.84</v>
+      </c>
+      <c r="E40" s="2">
+        <v>398149624</v>
+      </c>
+      <c r="F40" s="2">
+        <v>6704126410</v>
+      </c>
+      <c r="G40" s="7">
+        <f>D19</f>
+        <v>17.239999999999998</v>
+      </c>
+      <c r="H40" s="6">
+        <f>E19</f>
+        <v>563932853</v>
+      </c>
+      <c r="I40" s="6">
+        <f>F19</f>
+        <v>9723688779</v>
+      </c>
+      <c r="J40" s="6">
+        <f>D40/G40 - 1</f>
+        <v>-2.3201856148491795E-2</v>
+      </c>
+      <c r="K40" s="6">
+        <f>E40/H40 - 1</f>
+        <v>-0.29397689479885647</v>
+      </c>
+      <c r="L40" s="6">
+        <f>F40/I40 - 1</f>
+        <v>-0.31053671478269351</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="2">
-        <v>16.84</v>
-      </c>
-      <c r="E41" s="2">
-        <v>398149624</v>
-      </c>
-      <c r="F41" s="2">
-        <v>6704126410</v>
-      </c>
-      <c r="G41" s="7">
-        <f>D20</f>
-        <v>17.239999999999998</v>
-      </c>
-      <c r="H41" s="6">
-        <f>E20</f>
-        <v>563932853</v>
-      </c>
-      <c r="I41" s="6">
-        <f>F20</f>
-        <v>9723688779</v>
-      </c>
-      <c r="J41" s="6">
-        <f>D41/G41 - 1</f>
-        <v>-2.3201856148491795E-2</v>
-      </c>
-      <c r="K41" s="6">
-        <f>E41/H41 - 1</f>
-        <v>-0.29397689479885647</v>
-      </c>
-      <c r="L41" s="6">
-        <f>F41/I41 - 1</f>
-        <v>-0.31053671478269351</v>
-      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="H42" s="6"/>
@@ -2019,120 +2009,159 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="2">
+        <v>177414658</v>
+      </c>
+      <c r="F45" s="2">
+        <v>498154944</v>
+      </c>
+      <c r="G45" s="7" t="str">
+        <f t="shared" ref="G45:G60" si="5">VLOOKUP(A45,$A$24:$E$38, 4, FALSE)</f>
+        <v>3,0</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" ref="H45:H60" si="6">VLOOKUP(A45, $A$24:$E$38, 5, FALSE)</f>
+        <v>166285640</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" ref="I45:I60" si="7">VLOOKUP(A45, $A$24:$F$38, 6, FALSE)</f>
+        <v>498154944</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" ref="J45:J60" si="8">D45/G45 - 1</f>
+        <v>-6.3333333333333353E-2</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" ref="K45:K60" si="9">E45/H45 - 1</f>
+        <v>6.6927114091150708E-2</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" ref="L45:L60" si="10">F45/I45 - 1</f>
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="E46" s="2">
-        <v>177414658</v>
+        <v>81708447</v>
       </c>
       <c r="F46" s="2">
-        <v>498154944</v>
+        <v>249077472</v>
       </c>
       <c r="G46" s="7" t="str">
-        <f t="shared" ref="G46:G61" si="5">VLOOKUP(A46,$A$25:$E$39, 4, FALSE)</f>
-        <v>3,0</v>
+        <f t="shared" si="5"/>
+        <v>3,05</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" ref="H46:H61" si="6">VLOOKUP(A46, $A$25:$E$39, 5, FALSE)</f>
-        <v>166285640</v>
+        <f t="shared" si="6"/>
+        <v>81690114</v>
       </c>
       <c r="I46" s="7">
-        <f t="shared" ref="I46:I61" si="7">VLOOKUP(A46, $A$25:$F$39, 6, FALSE)</f>
-        <v>498154944</v>
+        <f t="shared" si="7"/>
+        <v>249077472</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" ref="J46:J61" si="8">D46/G46 - 1</f>
-        <v>-6.3333333333333353E-2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" ref="K46:K61" si="9">E46/H46 - 1</f>
-        <v>6.6927114091150708E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.2442128064592559E-4</v>
       </c>
       <c r="L46" s="6">
-        <f t="shared" ref="L46:L61" si="10">F46/I46 - 1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E47" s="2">
-        <v>81708447</v>
+        <v>56264395</v>
       </c>
       <c r="F47" s="2">
         <v>249077472</v>
       </c>
       <c r="G47" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>3,05</v>
+        <v>4,43</v>
       </c>
       <c r="H47" s="7">
         <f t="shared" si="6"/>
-        <v>81690114</v>
+        <v>56228217</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="7"/>
@@ -2144,7 +2173,7 @@
       </c>
       <c r="K47" s="6">
         <f t="shared" si="9"/>
-        <v>2.2442128064592559E-4</v>
+        <v>6.4341360850894702E-4</v>
       </c>
       <c r="L47" s="6">
         <f t="shared" si="10"/>
@@ -2153,30 +2182,30 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2">
-        <v>56264395</v>
+        <v>55275319</v>
       </c>
       <c r="F48" s="2">
         <v>249077472</v>
       </c>
       <c r="G48" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>4,43</v>
+        <v>4,51</v>
       </c>
       <c r="H48" s="7">
         <f t="shared" si="6"/>
-        <v>56228217</v>
+        <v>55246352</v>
       </c>
       <c r="I48" s="7">
         <f t="shared" si="7"/>
@@ -2188,7 +2217,7 @@
       </c>
       <c r="K48" s="6">
         <f t="shared" si="9"/>
-        <v>6.4341360850894702E-4</v>
+        <v>5.2432421239334559E-4</v>
       </c>
       <c r="L48" s="6">
         <f t="shared" si="10"/>
@@ -2197,151 +2226,151 @@
     </row>
     <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2">
-        <v>55275319</v>
+        <v>3620717</v>
       </c>
       <c r="F49" s="2">
-        <v>249077472</v>
+        <v>5206090</v>
       </c>
       <c r="G49" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>4,51</v>
+        <v>1,45</v>
       </c>
       <c r="H49" s="7">
         <f t="shared" si="6"/>
-        <v>55246352</v>
+        <v>3599606</v>
       </c>
       <c r="I49" s="7">
         <f t="shared" si="7"/>
-        <v>249077472</v>
+        <v>5203771</v>
       </c>
       <c r="J49" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-6.8965517241379448E-3</v>
       </c>
       <c r="K49" s="6">
         <f t="shared" si="9"/>
-        <v>5.2432421239334559E-4</v>
+        <v>5.8648085373789183E-3</v>
       </c>
       <c r="L49" s="6">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.4563836494737608E-4</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2">
-        <v>3620717</v>
+        <v>2883886</v>
       </c>
       <c r="F50" s="2">
-        <v>5206090</v>
+        <v>6728417</v>
       </c>
       <c r="G50" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>1,45</v>
+        <v>2,42</v>
       </c>
       <c r="H50" s="7">
         <f t="shared" si="6"/>
-        <v>3599606</v>
+        <v>2887592</v>
       </c>
       <c r="I50" s="7">
         <f t="shared" si="7"/>
-        <v>5203771</v>
+        <v>6984071</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" si="8"/>
-        <v>-6.8965517241379448E-3</v>
+        <v>-3.7190082644628086E-2</v>
       </c>
       <c r="K50" s="6">
         <f t="shared" si="9"/>
-        <v>5.8648085373789183E-3</v>
+        <v>-1.2834223117392796E-3</v>
       </c>
       <c r="L50" s="6">
         <f t="shared" si="10"/>
-        <v>4.4563836494737608E-4</v>
+        <v>-3.6605297970195294E-2</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2">
-        <v>2883886</v>
+        <v>2528310</v>
       </c>
       <c r="F51" s="2">
-        <v>6728417</v>
-      </c>
-      <c r="G51" s="7" t="str">
+        <v>498154944</v>
+      </c>
+      <c r="G51" s="7" t="e">
         <f t="shared" si="5"/>
-        <v>2,42</v>
-      </c>
-      <c r="H51" s="7">
+        <v>#N/A</v>
+      </c>
+      <c r="H51" s="7" t="e">
         <f t="shared" si="6"/>
-        <v>2887592</v>
-      </c>
-      <c r="I51" s="7">
+        <v>#N/A</v>
+      </c>
+      <c r="I51" s="7" t="e">
         <f t="shared" si="7"/>
-        <v>6984071</v>
-      </c>
-      <c r="J51" s="6">
+        <v>#N/A</v>
+      </c>
+      <c r="J51" s="6" t="e">
         <f t="shared" si="8"/>
-        <v>-3.7190082644628086E-2</v>
-      </c>
-      <c r="K51" s="6">
+        <v>#N/A</v>
+      </c>
+      <c r="K51" s="6" t="e">
         <f t="shared" si="9"/>
-        <v>-1.2834223117392796E-3</v>
-      </c>
-      <c r="L51" s="6">
+        <v>#N/A</v>
+      </c>
+      <c r="L51" s="6" t="e">
         <f t="shared" si="10"/>
-        <v>-3.6605297970195294E-2</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2">
-        <v>2528310</v>
+        <v>2520686</v>
       </c>
       <c r="F52" s="2">
         <v>498154944</v>
@@ -2373,271 +2402,271 @@
     </row>
     <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2">
-        <v>2520686</v>
+        <v>2322417</v>
       </c>
       <c r="F53" s="2">
-        <v>498154944</v>
-      </c>
-      <c r="G53" s="7" t="e">
+        <v>3596615</v>
+      </c>
+      <c r="G53" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H53" s="7" t="e">
+        <v>1,55</v>
+      </c>
+      <c r="H53" s="7">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I53" s="7" t="e">
+        <v>2317297</v>
+      </c>
+      <c r="I53" s="7">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J53" s="6" t="e">
+        <v>3594358</v>
+      </c>
+      <c r="J53" s="6">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K53" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L53" s="6" t="e">
+        <v>2.2094707756494802E-3</v>
+      </c>
+      <c r="L53" s="6">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>6.2792854801885234E-4</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2">
-        <v>2322417</v>
+        <v>1673253</v>
       </c>
       <c r="F54" s="2">
-        <v>3596615</v>
+        <v>246478560</v>
       </c>
       <c r="G54" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>1,55</v>
+        <v>207,89</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" si="6"/>
-        <v>2317297</v>
+        <v>4015655</v>
       </c>
       <c r="I54" s="7">
         <f t="shared" si="7"/>
-        <v>3594358</v>
-      </c>
-      <c r="J54" s="6">
+        <v>834813816</v>
+      </c>
+      <c r="J54" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
+        <v>-0.29140410794169991</v>
+      </c>
+      <c r="K54" s="9">
         <f t="shared" si="9"/>
-        <v>2.2094707756494802E-3</v>
-      </c>
-      <c r="L54" s="6">
+        <v>-0.583317540974013</v>
+      </c>
+      <c r="L54" s="9">
         <f t="shared" si="10"/>
-        <v>6.2792854801885234E-4</v>
+        <v>-0.70475026254237272</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2">
-        <v>1673253</v>
+        <v>1664675</v>
       </c>
       <c r="F55" s="2">
-        <v>246478560</v>
+        <v>243582883</v>
       </c>
       <c r="G55" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>207,89</v>
+        <v>214,58</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" si="6"/>
-        <v>4015655</v>
+        <v>6964512</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="7"/>
-        <v>834813816</v>
+        <v>1494464832</v>
       </c>
       <c r="J55" s="9">
         <f t="shared" si="8"/>
-        <v>-0.29140410794169991</v>
+        <v>-0.3181097958803244</v>
       </c>
       <c r="K55" s="9">
         <f t="shared" si="9"/>
-        <v>-0.583317540974013</v>
+        <v>-0.76097750998203462</v>
       </c>
       <c r="L55" s="9">
         <f t="shared" si="10"/>
-        <v>-0.70475026254237272</v>
+        <v>-0.83700995983022231</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2">
-        <v>1664675</v>
+        <v>1323379</v>
       </c>
       <c r="F56" s="2">
-        <v>243582883</v>
+        <v>249077472</v>
       </c>
       <c r="G56" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>214,58</v>
+        <v>186,89</v>
       </c>
       <c r="H56" s="7">
         <f t="shared" si="6"/>
-        <v>6964512</v>
+        <v>1332739</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="7"/>
-        <v>1494464832</v>
-      </c>
-      <c r="J56" s="9">
+        <v>249077472</v>
+      </c>
+      <c r="J56" s="6">
         <f t="shared" si="8"/>
-        <v>-0.3181097958803244</v>
-      </c>
-      <c r="K56" s="9">
+        <v>7.0629782224840287E-3</v>
+      </c>
+      <c r="K56" s="6">
         <f t="shared" si="9"/>
-        <v>-0.76097750998203462</v>
-      </c>
-      <c r="L56" s="9">
+        <v>-7.0231305604473437E-3</v>
+      </c>
+      <c r="L56" s="6">
         <f t="shared" si="10"/>
-        <v>-0.83700995983022231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2">
-        <v>1323379</v>
+        <v>1090483</v>
       </c>
       <c r="F57" s="2">
-        <v>249077472</v>
+        <v>1744655</v>
       </c>
       <c r="G57" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>186,89</v>
+        <v>117,59</v>
       </c>
       <c r="H57" s="7">
         <f t="shared" si="6"/>
-        <v>1332739</v>
+        <v>7409872</v>
       </c>
       <c r="I57" s="7">
         <f t="shared" si="7"/>
-        <v>249077472</v>
-      </c>
-      <c r="J57" s="6">
+        <v>871334574</v>
+      </c>
+      <c r="J57" s="9">
         <f t="shared" si="8"/>
-        <v>7.0629782224840287E-3</v>
-      </c>
-      <c r="K57" s="6">
+        <v>-0.98639340079938775</v>
+      </c>
+      <c r="K57" s="9">
         <f t="shared" si="9"/>
-        <v>-7.0231305604473437E-3</v>
-      </c>
-      <c r="L57" s="6">
+        <v>-0.85283376015132251</v>
+      </c>
+      <c r="L57" s="9">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-0.9979977209076063</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2">
-        <v>1090483</v>
+        <v>62033</v>
       </c>
       <c r="F58" s="2">
-        <v>1744655</v>
+        <v>217701</v>
       </c>
       <c r="G58" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>117,59</v>
+        <v>3,83</v>
       </c>
       <c r="H58" s="7">
         <f t="shared" si="6"/>
-        <v>7409872</v>
+        <v>56238</v>
       </c>
       <c r="I58" s="7">
         <f t="shared" si="7"/>
-        <v>871334574</v>
-      </c>
-      <c r="J58" s="9">
+        <v>215460</v>
+      </c>
+      <c r="J58" s="6">
         <f t="shared" si="8"/>
-        <v>-0.98639340079938775</v>
-      </c>
-      <c r="K58" s="9">
+        <v>-8.3550913838120189E-2</v>
+      </c>
+      <c r="K58" s="6">
         <f t="shared" si="9"/>
-        <v>-0.85283376015132251</v>
-      </c>
-      <c r="L58" s="9">
+        <v>0.10304420498595257</v>
+      </c>
+      <c r="L58" s="6">
         <f t="shared" si="10"/>
-        <v>-0.9979977209076063</v>
+        <v>1.0401002506265744E-2</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>101</v>
@@ -2681,7 +2710,7 @@
     </row>
     <row r="60" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>101</v>
@@ -2723,201 +2752,201 @@
         <v>1.0401002506265744E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" s="2">
-        <v>62033</v>
-      </c>
-      <c r="F61" s="2">
-        <v>217701</v>
-      </c>
-      <c r="G61" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v>3,83</v>
-      </c>
-      <c r="H61" s="7">
-        <f t="shared" si="6"/>
-        <v>56238</v>
-      </c>
-      <c r="I61" s="7">
-        <f t="shared" si="7"/>
-        <v>215460</v>
-      </c>
-      <c r="J61" s="6">
-        <f t="shared" si="8"/>
-        <v>-8.3550913838120189E-2</v>
-      </c>
-      <c r="K61" s="6">
-        <f t="shared" si="9"/>
-        <v>0.10304420498595257</v>
-      </c>
-      <c r="L61" s="6">
-        <f t="shared" si="10"/>
-        <v>1.0401002506265744E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
+    <row r="62" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E62" s="2">
         <v>390476724</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F62" s="2">
         <v>2998765043</v>
       </c>
-      <c r="G63" s="7">
-        <f>D41</f>
+      <c r="G62" s="7">
+        <f>D40</f>
         <v>16.84</v>
       </c>
-      <c r="H63" s="7">
-        <f>E41</f>
+      <c r="H62" s="7">
+        <f>E40</f>
         <v>398149624</v>
       </c>
-      <c r="I63" s="7">
-        <f>F41</f>
+      <c r="I62" s="7">
+        <f>F40</f>
         <v>6704126410</v>
       </c>
-      <c r="J63" s="6">
-        <f>D63/G63 - 1</f>
+      <c r="J62" s="6">
+        <f>D62/G62 - 1</f>
         <v>-0.5439429928741093</v>
       </c>
-      <c r="K63" s="6">
-        <f>E63/H63 - 1</f>
+      <c r="K62" s="6">
+        <f>E62/H62 - 1</f>
         <v>-1.9271398332401768E-2</v>
       </c>
-      <c r="L63" s="6">
-        <f>F63/I63 - 1</f>
+      <c r="L62" s="6">
+        <f>F62/I62 - 1</f>
         <v>-0.55269861282344168</v>
       </c>
+    </row>
+    <row r="65" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="2">
+        <v>65672485</v>
+      </c>
+      <c r="F67" s="2">
+        <v>249077472</v>
+      </c>
+      <c r="G67" s="7" t="str">
+        <f t="shared" ref="G67:G82" si="11">VLOOKUP(A67,$A$45:$E$60, 4, FALSE)</f>
+        <v>3,05</v>
+      </c>
+      <c r="H67" s="7">
+        <f t="shared" ref="H67:H82" si="12">VLOOKUP(A67, $A$45:$E$60, 5, FALSE)</f>
+        <v>81708447</v>
+      </c>
+      <c r="I67" s="7">
+        <f t="shared" ref="I67:I82" si="13">VLOOKUP(A67, $A$24:$F$38, 6, FALSE)</f>
+        <v>249077472</v>
+      </c>
+      <c r="J67" s="6">
+        <f t="shared" ref="J67:J82" si="14">D67/G67 - 1</f>
+        <v>0.24262295081967222</v>
+      </c>
+      <c r="K67" s="9">
+        <f t="shared" ref="K67:K82" si="15">E67/H67 - 1</f>
+        <v>-0.19625831341525801</v>
+      </c>
+      <c r="L67" s="6">
+        <f t="shared" ref="L67:L82" si="16">F67/I67 - 1</f>
         <v>0</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
     </row>
     <row r="68" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E68" s="2">
-        <v>65672485</v>
+        <v>38127995</v>
       </c>
       <c r="F68" s="2">
         <v>249077472</v>
       </c>
       <c r="G68" s="7" t="str">
-        <f t="shared" ref="G68:G83" si="11">VLOOKUP(A68,$A$46:$E$61, 4, FALSE)</f>
-        <v>3,05</v>
+        <f t="shared" si="11"/>
+        <v>4,43</v>
       </c>
       <c r="H68" s="7">
-        <f t="shared" ref="H68:H83" si="12">VLOOKUP(A68, $A$46:$E$61, 5, FALSE)</f>
-        <v>81708447</v>
+        <f t="shared" si="12"/>
+        <v>56264395</v>
       </c>
       <c r="I68" s="7">
-        <f t="shared" ref="I68:I83" si="13">VLOOKUP(A68, $A$25:$F$39, 6, FALSE)</f>
+        <f t="shared" si="13"/>
         <v>249077472</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" ref="J68:J83" si="14">D68/G68 - 1</f>
-        <v>0.24262295081967222</v>
+        <f t="shared" si="14"/>
+        <v>0.47404063205417613</v>
       </c>
       <c r="K68" s="9">
-        <f t="shared" ref="K68:K83" si="15">E68/H68 - 1</f>
-        <v>-0.19625831341525801</v>
+        <f t="shared" si="15"/>
+        <v>-0.32234239788768726</v>
       </c>
       <c r="L68" s="6">
-        <f t="shared" ref="L68:L83" si="16">F68/I68 - 1</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2">
-        <v>38127995</v>
+        <v>37625010</v>
       </c>
       <c r="F69" s="2">
         <v>249077472</v>
       </c>
       <c r="G69" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>4,43</v>
+        <v>4,51</v>
       </c>
       <c r="H69" s="7">
         <f t="shared" si="12"/>
-        <v>56264395</v>
+        <v>55275319</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" si="13"/>
@@ -2925,11 +2954,11 @@
       </c>
       <c r="J69" s="6">
         <f t="shared" si="14"/>
-        <v>0.47404063205417613</v>
+        <v>0.46784922394678508</v>
       </c>
       <c r="K69" s="9">
         <f t="shared" si="15"/>
-        <v>-0.32234239788768726</v>
+        <v>-0.3193162756781196</v>
       </c>
       <c r="L69" s="6">
         <f t="shared" si="16"/>
@@ -2938,118 +2967,118 @@
     </row>
     <row r="70" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2">
-        <v>37625010</v>
+        <v>2746891</v>
       </c>
       <c r="F70" s="2">
-        <v>249077472</v>
+        <v>5206710</v>
       </c>
       <c r="G70" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>4,51</v>
+        <v>1,44</v>
       </c>
       <c r="H70" s="7">
         <f t="shared" si="12"/>
-        <v>55275319</v>
+        <v>3620717</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="13"/>
-        <v>249077472</v>
+        <v>5203771</v>
       </c>
       <c r="J70" s="6">
         <f t="shared" si="14"/>
-        <v>0.46784922394678508</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="K70" s="9">
         <f t="shared" si="15"/>
-        <v>-0.3193162756781196</v>
+        <v>-0.24134059635149607</v>
       </c>
       <c r="L70" s="6">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5.6478273159976666E-4</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E71" s="2">
-        <v>2746891</v>
+        <v>2528829</v>
       </c>
       <c r="F71" s="2">
-        <v>5206710</v>
+        <v>498154944</v>
       </c>
       <c r="G71" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>1,44</v>
+        <v>197,03</v>
       </c>
       <c r="H71" s="7">
         <f t="shared" si="12"/>
-        <v>3620717</v>
-      </c>
-      <c r="I71" s="7">
+        <v>2528310</v>
+      </c>
+      <c r="I71" s="7" t="e">
         <f t="shared" si="13"/>
-        <v>5203771</v>
+        <v>#N/A</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" si="14"/>
-        <v>0.31944444444444442</v>
-      </c>
-      <c r="K71" s="9">
+        <v>-2.0301476932438334E-4</v>
+      </c>
+      <c r="K71" s="6">
         <f t="shared" si="15"/>
-        <v>-0.24134059635149607</v>
-      </c>
-      <c r="L71" s="6">
+        <v>2.0527546068316305E-4</v>
+      </c>
+      <c r="L71" s="6" t="e">
         <f t="shared" si="16"/>
-        <v>5.6478273159976666E-4</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E72" s="2">
-        <v>2528829</v>
+        <v>2521323</v>
       </c>
       <c r="F72" s="2">
         <v>498154944</v>
       </c>
       <c r="G72" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>197,03</v>
+        <v>197,63</v>
       </c>
       <c r="H72" s="7">
         <f t="shared" si="12"/>
-        <v>2528310</v>
+        <v>2520686</v>
       </c>
       <c r="I72" s="7" t="e">
         <f t="shared" si="13"/>
@@ -3057,11 +3086,11 @@
       </c>
       <c r="J72" s="6">
         <f t="shared" si="14"/>
-        <v>-2.0301476932438334E-4</v>
+        <v>-2.5299802661526982E-4</v>
       </c>
       <c r="K72" s="6">
         <f t="shared" si="15"/>
-        <v>2.0527546068316305E-4</v>
+        <v>2.5270898477636194E-4</v>
       </c>
       <c r="L72" s="6" t="e">
         <f t="shared" si="16"/>
@@ -3070,359 +3099,359 @@
     </row>
     <row r="73" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2">
-        <v>2521323</v>
+        <v>1856222</v>
       </c>
       <c r="F73" s="2">
-        <v>498154944</v>
+        <v>6728984</v>
       </c>
       <c r="G73" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>197,63</v>
+        <v>2,33</v>
       </c>
       <c r="H73" s="7">
         <f t="shared" si="12"/>
-        <v>2520686</v>
-      </c>
-      <c r="I73" s="7" t="e">
+        <v>2883886</v>
+      </c>
+      <c r="I73" s="7">
         <f t="shared" si="13"/>
-        <v>#N/A</v>
+        <v>6984071</v>
       </c>
       <c r="J73" s="6">
         <f t="shared" si="14"/>
-        <v>-2.5299802661526982E-4</v>
-      </c>
-      <c r="K73" s="6">
+        <v>0.55793991416309008</v>
+      </c>
+      <c r="K73" s="9">
         <f t="shared" si="15"/>
-        <v>2.5270898477636194E-4</v>
-      </c>
-      <c r="L73" s="6" t="e">
+        <v>-0.35634695684919582</v>
+      </c>
+      <c r="L73" s="6">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v>-3.6524113228516675E-2</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E74" s="2">
-        <v>1856222</v>
+        <v>1760026</v>
       </c>
       <c r="F74" s="2">
-        <v>6728984</v>
+        <v>498154944</v>
       </c>
       <c r="G74" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>2,33</v>
+        <v>2,81</v>
       </c>
       <c r="H74" s="7">
         <f t="shared" si="12"/>
-        <v>2883886</v>
+        <v>177414658</v>
       </c>
       <c r="I74" s="7">
         <f t="shared" si="13"/>
-        <v>6984071</v>
+        <v>498154944</v>
       </c>
       <c r="J74" s="6">
         <f t="shared" si="14"/>
-        <v>0.55793991416309008</v>
+        <v>99.725978647686844</v>
       </c>
       <c r="K74" s="9">
         <f t="shared" si="15"/>
-        <v>-0.35634695684919582</v>
+        <v>-0.99007959083065167</v>
       </c>
       <c r="L74" s="6">
         <f t="shared" si="16"/>
-        <v>-3.6524113228516675E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E75" s="2">
-        <v>1760026</v>
+        <v>1661015</v>
       </c>
       <c r="F75" s="2">
-        <v>498154944</v>
+        <v>245121866</v>
       </c>
       <c r="G75" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>2,81</v>
+        <v>147,31</v>
       </c>
       <c r="H75" s="7">
         <f t="shared" si="12"/>
-        <v>177414658</v>
+        <v>1673253</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="13"/>
-        <v>498154944</v>
+        <v>834813816</v>
       </c>
       <c r="J75" s="6">
         <f t="shared" si="14"/>
-        <v>99.725978647686844</v>
+        <v>1.7649854049284208E-3</v>
       </c>
       <c r="K75" s="9">
         <f t="shared" si="15"/>
-        <v>-0.99007959083065167</v>
+        <v>-7.3138969420643019E-3</v>
       </c>
       <c r="L75" s="6">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-0.70637540814250244</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E76" s="2">
-        <v>1661015</v>
+        <v>1657682</v>
       </c>
       <c r="F76" s="2">
-        <v>245121866</v>
+        <v>241498639</v>
       </c>
       <c r="G76" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>147,31</v>
+        <v>146,32</v>
       </c>
       <c r="H76" s="7">
         <f t="shared" si="12"/>
-        <v>1673253</v>
+        <v>1664675</v>
       </c>
       <c r="I76" s="7">
         <f t="shared" si="13"/>
-        <v>834813816</v>
+        <v>1494464832</v>
       </c>
       <c r="J76" s="6">
         <f t="shared" si="14"/>
-        <v>1.7649854049284208E-3</v>
+        <v>-4.3739748496445241E-3</v>
       </c>
       <c r="K76" s="9">
         <f t="shared" si="15"/>
-        <v>-7.3138969420643019E-3</v>
+        <v>-4.2008199798759804E-3</v>
       </c>
       <c r="L76" s="6">
         <f t="shared" si="16"/>
-        <v>-0.70637540814250244</v>
+        <v>-0.83840460221682889</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E77" s="2">
-        <v>1657682</v>
+        <v>1452891</v>
       </c>
       <c r="F77" s="2">
-        <v>241498639</v>
+        <v>3597225</v>
       </c>
       <c r="G77" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>146,32</v>
+        <v>1,55</v>
       </c>
       <c r="H77" s="7">
         <f t="shared" si="12"/>
-        <v>1664675</v>
+        <v>2322417</v>
       </c>
       <c r="I77" s="7">
         <f t="shared" si="13"/>
-        <v>1494464832</v>
+        <v>3594358</v>
       </c>
       <c r="J77" s="6">
         <f t="shared" si="14"/>
-        <v>-4.3739748496445241E-3</v>
+        <v>0.59999999999999987</v>
       </c>
       <c r="K77" s="9">
         <f t="shared" si="15"/>
-        <v>-4.2008199798759804E-3</v>
+        <v>-0.37440562999668014</v>
       </c>
       <c r="L77" s="6">
         <f t="shared" si="16"/>
-        <v>-0.83840460221682889</v>
+        <v>7.9763896640239196E-4</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E78" s="2">
-        <v>1452891</v>
+        <v>1323821</v>
       </c>
       <c r="F78" s="2">
-        <v>3597225</v>
+        <v>249077472</v>
       </c>
       <c r="G78" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>1,55</v>
+        <v>188,21</v>
       </c>
       <c r="H78" s="7">
         <f t="shared" si="12"/>
-        <v>2322417</v>
+        <v>1323379</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="13"/>
-        <v>3594358</v>
+        <v>249077472</v>
       </c>
       <c r="J78" s="6">
         <f t="shared" si="14"/>
-        <v>0.59999999999999987</v>
-      </c>
-      <c r="K78" s="9">
+        <v>-3.1879283778757372E-4</v>
+      </c>
+      <c r="K78" s="6">
         <f t="shared" si="15"/>
-        <v>-0.37440562999668014</v>
+        <v>3.3399351206275796E-4</v>
       </c>
       <c r="L78" s="6">
         <f t="shared" si="16"/>
-        <v>7.9763896640239196E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2">
-        <v>1323821</v>
+        <v>1089771</v>
       </c>
       <c r="F79" s="2">
-        <v>249077472</v>
+        <v>1745310</v>
       </c>
       <c r="G79" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>188,21</v>
+        <v>1,6</v>
       </c>
       <c r="H79" s="7">
         <f t="shared" si="12"/>
-        <v>1323379</v>
+        <v>1090483</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="13"/>
-        <v>249077472</v>
+        <v>871334574</v>
       </c>
       <c r="J79" s="6">
         <f t="shared" si="14"/>
-        <v>-3.1879283778757372E-4</v>
-      </c>
-      <c r="K79" s="6">
+        <v>0</v>
+      </c>
+      <c r="K79" s="11">
         <f t="shared" si="15"/>
-        <v>3.3399351206275796E-4</v>
+        <v>-6.5292168699560005E-4</v>
       </c>
       <c r="L79" s="6">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>-0.99799696918717695</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E80" s="2">
-        <v>1089771</v>
+        <v>34099</v>
       </c>
       <c r="F80" s="2">
-        <v>1745310</v>
+        <v>218304</v>
       </c>
       <c r="G80" s="7" t="str">
         <f t="shared" si="11"/>
-        <v>1,6</v>
+        <v>3,51</v>
       </c>
       <c r="H80" s="7">
         <f t="shared" si="12"/>
-        <v>1090483</v>
+        <v>62033</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="13"/>
-        <v>871334574</v>
+        <v>215460</v>
       </c>
       <c r="J80" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="11">
+        <v>0.82336182336182362</v>
+      </c>
+      <c r="K80" s="9">
         <f t="shared" si="15"/>
-        <v>-6.5292168699560005E-4</v>
+        <v>-0.45030870665613465</v>
       </c>
       <c r="L80" s="6">
         <f t="shared" si="16"/>
-        <v>-0.99799696918717695</v>
+        <v>1.3199665831244767E-2</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>127</v>
@@ -3466,7 +3495,7 @@
     </row>
     <row r="82" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>127</v>
@@ -3508,197 +3537,197 @@
         <v>1.3199665831244767E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" s="2">
-        <v>34099</v>
-      </c>
-      <c r="F83" s="2">
-        <v>218304</v>
-      </c>
-      <c r="G83" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v>3,51</v>
-      </c>
-      <c r="H83" s="7">
-        <f t="shared" si="12"/>
-        <v>62033</v>
-      </c>
-      <c r="I83" s="7">
-        <f t="shared" si="13"/>
-        <v>215460</v>
-      </c>
-      <c r="J83" s="6">
-        <f t="shared" si="14"/>
-        <v>0.82336182336182362</v>
-      </c>
-      <c r="K83" s="9">
-        <f t="shared" si="15"/>
-        <v>-0.45030870665613465</v>
-      </c>
-      <c r="L83" s="6">
-        <f t="shared" si="16"/>
-        <v>1.3199665831244767E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
+    <row r="84" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D84" s="2">
         <v>18.706041116629301</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E84" s="2">
         <v>160126258</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F84" s="2">
         <v>2995328366</v>
       </c>
-      <c r="G85" s="7" t="str">
-        <f>D63</f>
+      <c r="G84" s="7" t="str">
+        <f>D62</f>
         <v>7,68</v>
       </c>
-      <c r="H85" s="7">
-        <f>E63</f>
+      <c r="H84" s="7">
+        <f>E62</f>
         <v>390476724</v>
       </c>
-      <c r="I85" s="7">
-        <f>F63</f>
+      <c r="I84" s="7">
+        <f>F62</f>
         <v>2998765043</v>
       </c>
-      <c r="J85" s="6">
-        <f>D85/G85 - 1</f>
+      <c r="J84" s="6">
+        <f>D84/G84 - 1</f>
         <v>1.4356824370611068</v>
       </c>
-      <c r="K85" s="6">
-        <f>E85/H85 - 1</f>
+      <c r="K84" s="6">
+        <f>E84/H84 - 1</f>
         <v>-0.58992111908826605</v>
       </c>
-      <c r="L85" s="6">
-        <f>F85/I85 - 1</f>
+      <c r="L84" s="6">
+        <f>F84/I84 - 1</f>
         <v>-1.1460307662389813E-3</v>
       </c>
+    </row>
+    <row r="87" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
+        <v>0</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="89" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>24</v>
+      <c r="A89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45458654</v>
+      </c>
+      <c r="F89" s="2">
+        <v>248683496</v>
+      </c>
+      <c r="G89" s="7" t="str">
+        <f t="shared" ref="G89:G104" si="17">VLOOKUP(A89,$A$67:$E$82, 4, FALSE)</f>
+        <v>3,79</v>
+      </c>
+      <c r="H89" s="7">
+        <f t="shared" ref="H89:H104" si="18">VLOOKUP(A89, $A$67:$E$82, 5, FALSE)</f>
+        <v>65672485</v>
+      </c>
+      <c r="I89" s="7">
+        <f t="shared" ref="I89:I104" si="19">VLOOKUP(A89, $A$67:$F$82, 6, FALSE)</f>
+        <v>249077472</v>
+      </c>
+      <c r="J89" s="6">
+        <f t="shared" ref="J89:J104" si="20">D89/G89 - 1</f>
+        <v>0.4432717678100262</v>
+      </c>
+      <c r="K89" s="9">
+        <f t="shared" ref="K89:K104" si="21">E89/H89 - 1</f>
+        <v>-0.30779756544921366</v>
+      </c>
+      <c r="L89" s="6">
+        <f t="shared" ref="L89:L104" si="22">F89/I89 - 1</f>
+        <v>-1.5817408007096079E-3</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E90" s="2">
-        <v>45458654</v>
+        <v>32894757</v>
       </c>
       <c r="F90" s="2">
         <v>248683496</v>
       </c>
       <c r="G90" s="7" t="str">
-        <f t="shared" ref="G90:G105" si="17">VLOOKUP(A90,$A$68:$E$83, 4, FALSE)</f>
-        <v>3,79</v>
+        <f t="shared" si="17"/>
+        <v>6,62</v>
       </c>
       <c r="H90" s="7">
-        <f t="shared" ref="H90:H105" si="18">VLOOKUP(A90, $A$68:$E$83, 5, FALSE)</f>
-        <v>65672485</v>
+        <f t="shared" si="18"/>
+        <v>37625010</v>
       </c>
       <c r="I90" s="7">
-        <f t="shared" ref="I90:I105" si="19">VLOOKUP(A90, $A$68:$F$83, 6, FALSE)</f>
+        <f t="shared" si="19"/>
         <v>249077472</v>
       </c>
       <c r="J90" s="6">
-        <f t="shared" ref="J90:J105" si="20">D90/G90 - 1</f>
-        <v>0.4432717678100262</v>
+        <f t="shared" si="20"/>
+        <v>0.14199395770392731</v>
       </c>
       <c r="K90" s="9">
-        <f t="shared" ref="K90:K105" si="21">E90/H90 - 1</f>
-        <v>-0.30779756544921366</v>
+        <f t="shared" si="21"/>
+        <v>-0.12572097655256442</v>
       </c>
       <c r="L90" s="6">
-        <f t="shared" ref="L90:L105" si="22">F90/I90 - 1</f>
+        <f t="shared" si="22"/>
         <v>-1.5817408007096079E-3</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E91" s="2">
-        <v>32894757</v>
+        <v>32760711</v>
       </c>
       <c r="F91" s="2">
         <v>248683496</v>
       </c>
       <c r="G91" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>6,62</v>
+        <v>6,53</v>
       </c>
       <c r="H91" s="7">
         <f t="shared" si="18"/>
-        <v>37625010</v>
+        <v>38127995</v>
       </c>
       <c r="I91" s="7">
         <f t="shared" si="19"/>
@@ -3706,11 +3735,11 @@
       </c>
       <c r="J91" s="6">
         <f t="shared" si="20"/>
-        <v>0.14199395770392731</v>
+        <v>0.16232771822358338</v>
       </c>
       <c r="K91" s="9">
         <f t="shared" si="21"/>
-        <v>-0.12572097655256442</v>
+        <v>-0.1407701611375054</v>
       </c>
       <c r="L91" s="6">
         <f t="shared" si="22"/>
@@ -3719,42 +3748,42 @@
     </row>
     <row r="92" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E92" s="2">
-        <v>32760711</v>
+        <v>2523170</v>
       </c>
       <c r="F92" s="2">
-        <v>248683496</v>
+        <v>497366992</v>
       </c>
       <c r="G92" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>6,53</v>
+        <v>196,99</v>
       </c>
       <c r="H92" s="7">
         <f t="shared" si="18"/>
-        <v>38127995</v>
+        <v>2528829</v>
       </c>
       <c r="I92" s="7">
         <f t="shared" si="19"/>
-        <v>249077472</v>
+        <v>498154944</v>
       </c>
       <c r="J92" s="6">
         <f t="shared" si="20"/>
-        <v>0.16232771822358338</v>
-      </c>
-      <c r="K92" s="9">
+        <v>6.5993197624236721E-4</v>
+      </c>
+      <c r="K92" s="11">
         <f t="shared" si="21"/>
-        <v>-0.1407701611375054</v>
+        <v>-2.2377946472458277E-3</v>
       </c>
       <c r="L92" s="6">
         <f t="shared" si="22"/>
@@ -3763,30 +3792,30 @@
     </row>
     <row r="93" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E93" s="2">
-        <v>2523170</v>
+        <v>2515521</v>
       </c>
       <c r="F93" s="2">
         <v>497366992</v>
       </c>
       <c r="G93" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>196,99</v>
+        <v>197,58</v>
       </c>
       <c r="H93" s="7">
         <f t="shared" si="18"/>
-        <v>2528829</v>
+        <v>2521323</v>
       </c>
       <c r="I93" s="7">
         <f t="shared" si="19"/>
@@ -3794,11 +3823,11 @@
       </c>
       <c r="J93" s="6">
         <f t="shared" si="20"/>
-        <v>6.5993197624236721E-4</v>
+        <v>7.0857374228161518E-4</v>
       </c>
       <c r="K93" s="11">
         <f t="shared" si="21"/>
-        <v>-2.2377946472458277E-3</v>
+        <v>-2.3011728366416628E-3</v>
       </c>
       <c r="L93" s="6">
         <f t="shared" si="22"/>
@@ -3807,415 +3836,415 @@
     </row>
     <row r="94" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E94" s="2">
-        <v>2515521</v>
+        <v>2078368</v>
       </c>
       <c r="F94" s="2">
-        <v>497366992</v>
+        <v>5188587</v>
       </c>
       <c r="G94" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>197,58</v>
+        <v>1,9</v>
       </c>
       <c r="H94" s="7">
         <f t="shared" si="18"/>
-        <v>2521323</v>
+        <v>2746891</v>
       </c>
       <c r="I94" s="7">
         <f t="shared" si="19"/>
-        <v>498154944</v>
+        <v>5206710</v>
       </c>
       <c r="J94" s="6">
         <f t="shared" si="20"/>
-        <v>7.0857374228161518E-4</v>
-      </c>
-      <c r="K94" s="11">
+        <v>0.31578947368421062</v>
+      </c>
+      <c r="K94" s="9">
         <f t="shared" si="21"/>
-        <v>-2.3011728366416628E-3</v>
+        <v>-0.24337441856993958</v>
       </c>
       <c r="L94" s="6">
         <f t="shared" si="22"/>
-        <v>-1.5817408007096079E-3</v>
+        <v>-3.4807008648455318E-3</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E95" s="2">
-        <v>2078368</v>
+        <v>1942142</v>
       </c>
       <c r="F95" s="2">
-        <v>5188587</v>
+        <v>497366992</v>
       </c>
       <c r="G95" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>1,9</v>
+        <v>283,04</v>
       </c>
       <c r="H95" s="7">
         <f t="shared" si="18"/>
-        <v>2746891</v>
+        <v>1760026</v>
       </c>
       <c r="I95" s="7">
         <f t="shared" si="19"/>
-        <v>5206710</v>
+        <v>498154944</v>
       </c>
       <c r="J95" s="6">
         <f t="shared" si="20"/>
-        <v>0.31578947368421062</v>
-      </c>
-      <c r="K95" s="9">
+        <v>-9.5216223855285609E-2</v>
+      </c>
+      <c r="K95" s="11">
         <f t="shared" si="21"/>
-        <v>-0.24337441856993958</v>
+        <v>0.10347347141462682</v>
       </c>
       <c r="L95" s="6">
         <f t="shared" si="22"/>
-        <v>-3.4807008648455318E-3</v>
+        <v>-1.5817408007096079E-3</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E96" s="2">
-        <v>1942142</v>
+        <v>1921941</v>
       </c>
       <c r="F96" s="2">
-        <v>497366992</v>
+        <v>8570121</v>
       </c>
       <c r="G96" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>283,04</v>
+        <v>3,63</v>
       </c>
       <c r="H96" s="7">
         <f t="shared" si="18"/>
-        <v>1760026</v>
+        <v>1856222</v>
       </c>
       <c r="I96" s="7">
         <f t="shared" si="19"/>
-        <v>498154944</v>
+        <v>6728984</v>
       </c>
       <c r="J96" s="6">
         <f t="shared" si="20"/>
-        <v>-9.5216223855285609E-2</v>
+        <v>0.22865013774104681</v>
       </c>
       <c r="K96" s="11">
         <f t="shared" si="21"/>
-        <v>0.10347347141462682</v>
+        <v>3.5404709135006485E-2</v>
       </c>
       <c r="L96" s="6">
         <f t="shared" si="22"/>
-        <v>-1.5817408007096079E-3</v>
+        <v>0.27361292581465491</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E97" s="2">
-        <v>1921941</v>
+        <v>1650394</v>
       </c>
       <c r="F97" s="2">
-        <v>8570121</v>
+        <v>241754833</v>
       </c>
       <c r="G97" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>3,63</v>
+        <v>147,57</v>
       </c>
       <c r="H97" s="7">
         <f t="shared" si="18"/>
-        <v>1856222</v>
+        <v>1661015</v>
       </c>
       <c r="I97" s="7">
         <f t="shared" si="19"/>
-        <v>6728984</v>
+        <v>245121866</v>
       </c>
       <c r="J97" s="6">
         <f t="shared" si="20"/>
-        <v>0.22865013774104681</v>
+        <v>-7.386325133834859E-3</v>
       </c>
       <c r="K97" s="11">
         <f t="shared" si="21"/>
-        <v>3.5404709135006485E-2</v>
+        <v>-6.3942830136994866E-3</v>
       </c>
       <c r="L97" s="6">
         <f t="shared" si="22"/>
-        <v>0.27361292581465491</v>
+        <v>-1.3736159302899509E-2</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E98" s="2">
-        <v>1650394</v>
+        <v>1646706</v>
       </c>
       <c r="F98" s="2">
-        <v>241754833</v>
+        <v>239648734</v>
       </c>
       <c r="G98" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>147,57</v>
+        <v>145,68</v>
       </c>
       <c r="H98" s="7">
         <f t="shared" si="18"/>
-        <v>1661015</v>
+        <v>1657682</v>
       </c>
       <c r="I98" s="7">
         <f t="shared" si="19"/>
-        <v>245121866</v>
+        <v>241498639</v>
       </c>
       <c r="J98" s="6">
         <f t="shared" si="20"/>
-        <v>-7.386325133834859E-3</v>
+        <v>-1.0296540362438877E-3</v>
       </c>
       <c r="K98" s="11">
         <f t="shared" si="21"/>
-        <v>-6.3942830136994866E-3</v>
+        <v>-6.6212940720837832E-3</v>
       </c>
       <c r="L98" s="6">
         <f t="shared" si="22"/>
-        <v>-1.3736159302899509E-2</v>
+        <v>-7.6601052811730019E-3</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E99" s="2">
-        <v>1646706</v>
+        <v>1320502</v>
       </c>
       <c r="F99" s="2">
-        <v>239648734</v>
+        <v>248683496</v>
       </c>
       <c r="G99" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>145,68</v>
+        <v>188,15</v>
       </c>
       <c r="H99" s="7">
         <f t="shared" si="18"/>
-        <v>1657682</v>
+        <v>1323821</v>
       </c>
       <c r="I99" s="7">
         <f t="shared" si="19"/>
-        <v>241498639</v>
+        <v>249077472</v>
       </c>
       <c r="J99" s="6">
         <f t="shared" si="20"/>
-        <v>-1.0296540362438877E-3</v>
+        <v>9.0353441403134838E-4</v>
       </c>
       <c r="K99" s="11">
         <f t="shared" si="21"/>
-        <v>-6.6212940720837832E-3</v>
+        <v>-2.5071365388522615E-3</v>
       </c>
       <c r="L99" s="6">
         <f t="shared" si="22"/>
-        <v>-7.6601052811730019E-3</v>
+        <v>-1.5817408007096079E-3</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E100" s="2">
-        <v>1320502</v>
+        <v>1316535</v>
       </c>
       <c r="F100" s="2">
-        <v>248683496</v>
+        <v>3574268</v>
       </c>
       <c r="G100" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>188,15</v>
+        <v>2,48</v>
       </c>
       <c r="H100" s="7">
         <f t="shared" si="18"/>
-        <v>1323821</v>
+        <v>1452891</v>
       </c>
       <c r="I100" s="7">
         <f t="shared" si="19"/>
-        <v>249077472</v>
+        <v>3597225</v>
       </c>
       <c r="J100" s="6">
         <f t="shared" si="20"/>
-        <v>9.0353441403134838E-4</v>
-      </c>
-      <c r="K100" s="11">
+        <v>9.2741935483870996E-2</v>
+      </c>
+      <c r="K100" s="9">
         <f t="shared" si="21"/>
-        <v>-2.5071365388522615E-3</v>
+        <v>-9.3851500215776706E-2</v>
       </c>
       <c r="L100" s="6">
         <f t="shared" si="22"/>
-        <v>-1.5817408007096079E-3</v>
+        <v>-6.3818637977886006E-3</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E101" s="2">
-        <v>1316535</v>
+        <v>1091643</v>
       </c>
       <c r="F101" s="2">
-        <v>3574268</v>
+        <v>1737790</v>
       </c>
       <c r="G101" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>2,48</v>
+        <v>1,6</v>
       </c>
       <c r="H101" s="7">
         <f t="shared" si="18"/>
-        <v>1452891</v>
+        <v>1089771</v>
       </c>
       <c r="I101" s="7">
         <f t="shared" si="19"/>
-        <v>3597225</v>
+        <v>1745310</v>
       </c>
       <c r="J101" s="6">
         <f t="shared" si="20"/>
-        <v>9.2741935483870996E-2</v>
-      </c>
-      <c r="K101" s="9">
+        <v>-6.2499999999999778E-3</v>
+      </c>
+      <c r="K101" s="11">
         <f t="shared" si="21"/>
-        <v>-9.3851500215776706E-2</v>
+        <v>1.7177920865942831E-3</v>
       </c>
       <c r="L101" s="6">
         <f t="shared" si="22"/>
-        <v>-6.3818637977886006E-3</v>
+        <v>-4.3086901467360716E-3</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E102" s="2">
-        <v>1091643</v>
+        <v>64591</v>
       </c>
       <c r="F102" s="2">
-        <v>1737790</v>
+        <v>220437</v>
       </c>
       <c r="G102" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>1,6</v>
+        <v>6,4</v>
       </c>
       <c r="H102" s="7">
         <f t="shared" si="18"/>
-        <v>1089771</v>
+        <v>34099</v>
       </c>
       <c r="I102" s="7">
         <f t="shared" si="19"/>
-        <v>1745310</v>
+        <v>218304</v>
       </c>
       <c r="J102" s="6">
         <f t="shared" si="20"/>
-        <v>-6.2499999999999778E-3</v>
+        <v>-0.46718749999999998</v>
       </c>
       <c r="K102" s="11">
         <f t="shared" si="21"/>
-        <v>1.7177920865942831E-3</v>
+        <v>0.89421977184081647</v>
       </c>
       <c r="L102" s="6">
         <f t="shared" si="22"/>
-        <v>-4.3086901467360716E-3</v>
+        <v>9.7707783641161061E-3</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E103" s="2">
-        <v>64591</v>
+        <v>35031</v>
       </c>
       <c r="F103" s="2">
         <v>220437</v>
@@ -4234,11 +4263,11 @@
       </c>
       <c r="J103" s="6">
         <f t="shared" si="20"/>
-        <v>-0.46718749999999998</v>
+        <v>-1.7187500000000022E-2</v>
       </c>
       <c r="K103" s="11">
         <f t="shared" si="21"/>
-        <v>0.89421977184081647</v>
+        <v>2.7332179829320458E-2</v>
       </c>
       <c r="L103" s="6">
         <f t="shared" si="22"/>
@@ -4247,7 +4276,7 @@
     </row>
     <row r="104" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>159</v>
@@ -4289,124 +4318,80 @@
         <v>9.7707783641161061E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E105" s="2">
-        <v>35031</v>
-      </c>
-      <c r="F105" s="2">
-        <v>220437</v>
-      </c>
-      <c r="G105" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v>6,4</v>
-      </c>
-      <c r="H105" s="7">
-        <f t="shared" si="18"/>
-        <v>34099</v>
-      </c>
-      <c r="I105" s="7">
-        <f t="shared" si="19"/>
-        <v>218304</v>
-      </c>
-      <c r="J105" s="6">
-        <f t="shared" si="20"/>
-        <v>-1.7187500000000022E-2</v>
-      </c>
-      <c r="K105" s="11">
-        <f t="shared" si="21"/>
-        <v>2.7332179829320458E-2</v>
-      </c>
-      <c r="L105" s="6">
-        <f t="shared" si="22"/>
-        <v>9.7707783641161061E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="E106" s="2">
+        <v>129255697</v>
+      </c>
+      <c r="F106" s="2">
+        <v>2987970604</v>
+      </c>
+      <c r="G106" s="7">
+        <f>D84</f>
+        <v>18.706041116629301</v>
+      </c>
+      <c r="H106" s="7">
+        <f>E84</f>
+        <v>160126258</v>
+      </c>
+      <c r="I106" s="7">
+        <f>F84</f>
+        <v>2995328366</v>
+      </c>
+      <c r="J106" s="6">
+        <f>D106/G106 - 1</f>
+        <v>2458.847046903712</v>
+      </c>
+      <c r="K106" s="6">
+        <f>E106/H106 - 1</f>
+        <v>-0.19278887413955559</v>
+      </c>
+      <c r="L106" s="6">
+        <f>F106/I106 - 1</f>
+        <v>-2.4564124866969239E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>177</v>
+        <v>83</v>
+      </c>
+      <c r="D107" s="2">
+        <v>17.239999999999998</v>
       </c>
       <c r="E107" s="2">
-        <v>129255697</v>
+        <v>563932853</v>
       </c>
       <c r="F107" s="2">
-        <v>2987970604</v>
-      </c>
-      <c r="G107" s="7">
-        <f>D85</f>
-        <v>18.706041116629301</v>
-      </c>
-      <c r="H107" s="7">
-        <f>E85</f>
-        <v>160126258</v>
-      </c>
-      <c r="I107" s="7">
-        <f>F85</f>
-        <v>2995328366</v>
-      </c>
-      <c r="J107" s="6">
-        <f>D107/G107 - 1</f>
-        <v>2458.847046903712</v>
-      </c>
-      <c r="K107" s="6">
-        <f>E107/H107 - 1</f>
-        <v>-0.19278887413955559</v>
-      </c>
-      <c r="L107" s="6">
-        <f>F107/I107 - 1</f>
-        <v>-2.4564124866969239E-3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D108" s="2">
-        <v>17.239999999999998</v>
-      </c>
-      <c r="E108" s="2">
-        <v>563932853</v>
-      </c>
-      <c r="F108" s="2">
         <v>9723688779</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="17" t="s">
+    <row r="108" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B109">
-        <f>E108/E107</f>
+      <c r="B108">
+        <f>E107/E106</f>
         <v>4.362924544826833</v>
       </c>
-      <c r="C109">
-        <f>F108/F107</f>
+      <c r="C108">
+        <f>F107/F106</f>
         <v>3.2542785949710771</v>
       </c>
     </row>
@@ -4414,19 +4399,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>